--- a/medicine/Psychotrope/Domaine_de_Pailhès/Domaine_de_Pailhès.xlsx
+++ b/medicine/Psychotrope/Domaine_de_Pailhès/Domaine_de_Pailhès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Domaine_de_Pailh%C3%A8s</t>
+          <t>Domaine_de_Pailhès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Domaine de Pailhès est un domaine viticole situé sur le territoire de la commune de Béziers dans le département de l'Hérault.
 La culture de la vigne s’étend sur un domaine vallonné d'une superficie de 80 hectares. La vinification est traditionnelle avec l’utilisation de pressoir à vin à vis verticale de type « Marmonier ».
-Le  millésime 2009 du domaine de Pailhès a obtenu une médaille d'or dans la catégorie  « tranquille Rouge » au Concours International des Vins à Lyon de 2010[1].
+Le  millésime 2009 du domaine de Pailhès a obtenu une médaille d'or dans la catégorie  « tranquille Rouge » au Concours International des Vins à Lyon de 2010.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Domaine_de_Pailh%C3%A8s</t>
+          <t>Domaine_de_Pailhès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut acquis au XVIIIe siècle par la famille  Roubes puis par succession arriva au XIXe siècle dans la famille Guibert et devint ensuite la propriété de madame de Vulliod (1890-1982), née  Marie-Antoinette Louise Guibert, dont descendent les propriétaires actuels.
 </t>
